--- a/SAULink9_PartList.xlsx
+++ b/SAULink9_PartList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Eigene Dateien\HAM\DIY\SVX\SVXLink_Node_Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02241AE-5104-4357-B95F-0892B1375447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1678471-ADA4-45B4-AC47-E4A1E509FB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="17640" xr2:uid="{323B2ECF-0824-4216-B6CD-CF298D8265A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{323B2ECF-0824-4216-B6CD-CF298D8265A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Price</t>
   </si>
@@ -45,12 +45,63 @@
   </si>
   <si>
     <t>Part</t>
+  </si>
+  <si>
+    <t>Front Panel</t>
+  </si>
+  <si>
+    <t>Back Panel</t>
+  </si>
+  <si>
+    <t>https://github.com/OE9SAU/SVXLink_Node_Case</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/dp/B08DG2X7K5?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
+  </si>
+  <si>
+    <t>Alu Case 150*145*54</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/dp/B0D1K83XRZ?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
+  </si>
+  <si>
+    <t>DC-DC 5V/5A</t>
+  </si>
+  <si>
+    <t>USB-Soundcard</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/dp/B087V62BYH?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/dp/B01EF000NM?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
+  </si>
+  <si>
+    <t>RJ45 plug to socket (30cm)</t>
+  </si>
+  <si>
+    <t>Rpi3b+</t>
+  </si>
+  <si>
+    <t>SD Card (16gb)</t>
+  </si>
+  <si>
+    <t>Base plate case</t>
+  </si>
+  <si>
+    <t>DIY</t>
+  </si>
+  <si>
+    <t>Reichelt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$EUR]\ #,##0.00"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -110,10 +161,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -448,22 +511,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F289346-AD84-47FC-8861-EA845A807292}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="90.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -471,209 +536,180 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4">
+        <v>20.56</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4">
+        <v>6.24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4">
+        <v>38.5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4">
+        <v>16</v>
+      </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="4"/>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="B14" s="4"/>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="B16" s="4"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="B17" s="4"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="B18" s="4"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="B19" s="4"/>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="B20" s="4"/>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="B21" s="4"/>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="B22" s="4"/>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="B23" s="4"/>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="B24" s="4"/>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="B25" s="4"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="5">
+        <f>SUM(B2:B25)</f>
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/SAULink9_PartList.xlsx
+++ b/SAULink9_PartList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Eigene Dateien\HAM\DIY\SVX\SVXLink_Node_Case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HAM\DIY\SVXLink\SVXLink_Node_Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1678471-ADA4-45B4-AC47-E4A1E509FB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B4AD0E-8EC2-4014-A72B-4D61BCCA1EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{323B2ECF-0824-4216-B6CD-CF298D8265A9}"/>
+    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15840" xr2:uid="{323B2ECF-0824-4216-B6CD-CF298D8265A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,16 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>Part</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>Front Panel</t>
   </si>
@@ -59,9 +50,6 @@
     <t>https://www.amazon.de/dp/B08DG2X7K5?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
   </si>
   <si>
-    <t>Alu Case 150*145*54</t>
-  </si>
-  <si>
     <t>https://www.amazon.de/dp/B0D1K83XRZ?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
   </si>
   <si>
@@ -86,13 +74,112 @@
     <t>SD Card (16gb)</t>
   </si>
   <si>
-    <t>Base plate case</t>
-  </si>
-  <si>
     <t>DIY</t>
   </si>
   <si>
-    <t>Reichelt</t>
+    <t>Base plate for case</t>
+  </si>
+  <si>
+    <t>HS 25-9</t>
+  </si>
+  <si>
+    <t>HEBLM 25</t>
+  </si>
+  <si>
+    <t>DC Einbaubuchse</t>
+  </si>
+  <si>
+    <t>DC Stecker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reichelt </t>
+  </si>
+  <si>
+    <t>D-Sub 9pol</t>
+  </si>
+  <si>
+    <t>RASPBERRY PI 3B+</t>
+  </si>
+  <si>
+    <t>D-SUB BU 09</t>
+  </si>
+  <si>
+    <t>BKL 10120291</t>
+  </si>
+  <si>
+    <t>D-Sub Schraubsverriegelungssatz</t>
+  </si>
+  <si>
+    <t>BAT 43 STM</t>
+  </si>
+  <si>
+    <t>Schottkydiode, 30 V, 0,2 A, DO-35</t>
+  </si>
+  <si>
+    <t>Bipolartransistor, NPN, 45V, 0,1A, 0,5W, TO-92 LF</t>
+  </si>
+  <si>
+    <t>BC547CTA</t>
+  </si>
+  <si>
+    <t>METALL 4,70K</t>
+  </si>
+  <si>
+    <t>Widerstand, Metallschicht, 4,70 kOhm, 0207, 0,6 W, 1%</t>
+  </si>
+  <si>
+    <t>64P-50K</t>
+  </si>
+  <si>
+    <t>Präzisionspotentiometer, 25 Gänge, liegend, 50 kOhm (nur bei Motorola)</t>
+  </si>
+  <si>
+    <t>JST XH6P SM4</t>
+  </si>
+  <si>
+    <t>JST - Buchsengehäuse, RM 2,5 mm, 1x6 polig, gew. - XH</t>
+  </si>
+  <si>
+    <t>OMR B3FS-1012P</t>
+  </si>
+  <si>
+    <t>Taster, SMD, 1 Schließer (NO)</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Preis</t>
+  </si>
+  <si>
+    <t>Teile</t>
+  </si>
+  <si>
+    <t>Alu Gehäuse 150*145*54</t>
+  </si>
+  <si>
+    <t>Kleinmaterial SMD Widerstände, Abstandshalter, Drähte, usw.</t>
+  </si>
+  <si>
+    <t>Klinkeneinbaubuchse</t>
+  </si>
+  <si>
+    <t>USB Pigtail</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/dp/B0D2VMSMGC?ref=ppx_yo2ov_dt_b_fed_asin_title&amp;th=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/dp/B09NDP25YY?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
+  </si>
+  <si>
+    <t>SVXLink Pi Hat</t>
+  </si>
+  <si>
+    <t>https://github.com/OE9SAU/SVXLink_PiHat_v2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/gp/product/B08KSSX9PH/ref=ewc_pr_img_1?smid=A1G2FC5CI8M2YB&amp;th=1</t>
   </si>
 </sst>
 </file>
@@ -102,7 +189,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$EUR]\ #,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +208,30 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -158,10 +269,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -177,8 +289,16 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -511,134 +631,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F289346-AD84-47FC-8861-EA845A807292}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="68.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="90.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="95.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B2" s="4">
         <v>20.56</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
+      <c r="C2" s="9" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4" s="4">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" s="4">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B6" s="4">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4">
         <v>6.24</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B11" s="4">
-        <v>38.5</v>
+        <v>1.41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4">
-        <v>16</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
@@ -648,70 +782,150 @@
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4">
+        <v>38.22</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1.21</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="2"/>
+      <c r="A24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="5">
-        <f>SUM(B2:B25)</f>
-        <v>99</v>
+      <c r="A25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="4">
+        <v>10</v>
+      </c>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="8">
+        <f>SUM(B2:B26)</f>
+        <v>106.28999999999998</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{C14774D0-D90A-47B5-BB4F-2C89DCD2C42C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SAULink9_PartList.xlsx
+++ b/SAULink9_PartList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HAM\DIY\SVXLink\SVXLink_Node_Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B4AD0E-8EC2-4014-A72B-4D61BCCA1EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269852B2-9F26-4B01-B2E6-C04C836069E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15840" xr2:uid="{323B2ECF-0824-4216-B6CD-CF298D8265A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{323B2ECF-0824-4216-B6CD-CF298D8265A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -634,7 +634,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
